--- a/results/mp/deberta/corona/confidence/210/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -190,15 +190,15 @@
     <t>ensure</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>wu</t>
   </si>
   <si>
@@ -226,22 +226,22 @@
     <t>gt</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>easter</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>worth</t>
   </si>
   <si>
     <t>data</t>
@@ -2466,25 +2466,25 @@
         <v>58</v>
       </c>
       <c r="K32">
-        <v>0.6926406926406926</v>
+        <v>0.68</v>
       </c>
       <c r="L32">
-        <v>160</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="N32">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O32">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2492,25 +2492,25 @@
         <v>59</v>
       </c>
       <c r="K33">
-        <v>0.68</v>
+        <v>0.6703296703296703</v>
       </c>
       <c r="L33">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="N33">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O33">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2518,25 +2518,25 @@
         <v>60</v>
       </c>
       <c r="K34">
-        <v>0.6703296703296703</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L34">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="M34">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>30</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2778,25 +2778,25 @@
         <v>70</v>
       </c>
       <c r="K44">
-        <v>0.5853658536585366</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L44">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="M44">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="N44">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O44">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>136</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2804,25 +2804,25 @@
         <v>71</v>
       </c>
       <c r="K45">
-        <v>0.5813953488372093</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="L45">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N45">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2830,13 +2830,13 @@
         <v>72</v>
       </c>
       <c r="K46">
-        <v>0.5806451612903226</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2859,22 +2859,22 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="L47">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M47">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2882,25 +2882,25 @@
         <v>74</v>
       </c>
       <c r="K48">
-        <v>0.5714285714285714</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L48">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N48">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O48">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2908,25 +2908,25 @@
         <v>75</v>
       </c>
       <c r="K49">
-        <v>0.5652173913043478</v>
+        <v>0.5647058823529412</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="N49">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>10</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="10:17">
